--- a/java답안예시01.xlsx
+++ b/java답안예시01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="585">
   <si>
     <t>이름</t>
   </si>
@@ -8560,6 +8560,13 @@
     <t>실패사유</t>
   </si>
   <si>
+    <t xml:space="preserve">문제: 2번 문제
+점수: 0</t>
+  </si>
+  <si>
+    <t>[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+  </si>
+  <si>
     <t xml:space="preserve">문제: 1번 문제
 점수: 0
 문제: 2번 문제
@@ -8568,9 +8575,54 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 2번 문제
+점수: 0
+문제: 3번 문제
+점수: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Error extracting method info: Command failed: echo \"import java.util.Arrays;\nimport java.util.Comparator;\nimport java.util.HashMap;\n\npublic class Main {\n    public String[] solution(String[] arr, int n) {\n\n        HashMap&lt;String, String&gt; map = new HashMap&lt;&gt;();\n        HashMap&lt;String, String &gt; duplicatedMap = new HashMap&lt;&gt;();\n        for (String s : arr) {\n            if (map.get(s) == null) {\n                map.put(s, s);\n                System.out.println(\"map.get(s) = \" + map.get(s));\n            } else {\n                duplicatedMap.put(s, s);\n            }\n        }\n        for (String key : duplicatedMap.keySet()) {\n            map.remove(key);\n        }\n\n        // 정답 배열 삽입\n        String[] answer = new String[map.size()];\n        int idx = 0;\n        for (String key : map.keySet()) {\n            answer[idx++] = map.get(key);\n        }\n\n        // 정렬\n        Arrays.sort(answer, new Comparator&lt;String &gt;() {\n            @Override\n            public int compare(String o1, String o2) {\n                if (o1.charAt(n) == o2.charAt(n)) {\n                    return o1.compareTo(o2);\n                }\n                return o1.charAt(n) - o2.charAt(n);\n            }\n        });\n        return answer;\n    }\n\n    public static void main(String[] args) {\n        Main method = new Main();\n        String[] arr = {\"coke\", \"water\", \"glass\", \"dog\", \"dog\", \"yogurt\", \"vitamin\"};\n        int n = 2;\n        System.out.println(Arrays.toString(method.solution(arr, n)));\n    }\n}\n\" | java -jar /Users/gimjeonghyeon/WebstormProjects/auto-score/src/score/language/libs/ASTAnalyzer-1.0-SNAPSHOT.jar\n/bin/sh: -c: line 12: syntax error near unexpected token `('\n/bin/sh: -c: line 12: `                System.out.println(\"map.get(s) = \" + map.get(s));'\n " ⊄ (모범결과)[["car","bed","sun"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 2번 문제
+점수: 0
+문제: 3번 문제
+점수: 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","cat","car"] ⊄ (모범결과)[["apple","car","cat"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문제: 3번 문제
+점수: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+  </si>
+  <si>
+    <t>[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8579,18 +8631,17 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[["car","bed","sun"]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 2번 문제
-점수: 0
-문제: 3번 문제
-점수: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","banana","banana","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)["glass","dog","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8599,25 +8650,21 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 3번 문제
-점수: 0</t>
-  </si>
-  <si>
-    <t>[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[["car","bed","sun"]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문제: 1번 문제
-점수: 0</t>
-  </si>
-  <si>
-    <t>[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: solution method 의 명세(리턴타입과 파라미터 타입) 추출 실패! Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)[[4,6],[7,-3]] ⊄ (모범결과)[[[4,6],[7,-9]]]
+[1번 문제] - 2번 케이스 오답: (유저)[[-2],[-2]] ⊄ (모범결과)[[[-4],[-6]]]
+[1번 문제] - 3번 케이스 오답: (유저)[[10,8,-5],[-5,8,-1]] ⊄ (모범결과)[[[10,8,-7],[-9,8,-11]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
 </sst>
 </file>
@@ -51042,13 +51089,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>563</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>564</v>
@@ -51071,13 +51118,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>563</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>564</v>
@@ -51100,13 +51147,13 @@
         <v>21</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>563</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>564</v>
@@ -51129,13 +51176,13 @@
         <v>26</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>563</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>564</v>
@@ -51161,13 +51208,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -51187,13 +51234,13 @@
         <v>36</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>563</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
         <v>564</v>
@@ -51216,13 +51263,13 @@
         <v>41</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>563</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
         <v>564</v>
@@ -51248,13 +51295,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -51277,13 +51324,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -51306,13 +51353,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -51332,13 +51379,13 @@
         <v>61</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>563</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>564</v>
@@ -51364,13 +51411,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -51393,13 +51440,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -51422,13 +51469,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -51451,13 +51498,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -51480,13 +51527,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -51509,13 +51556,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -51535,13 +51582,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -51561,13 +51608,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -51587,13 +51634,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -51613,13 +51660,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -51639,13 +51686,13 @@
         <v>106</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>563</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
         <v>564</v>
@@ -51668,13 +51715,13 @@
         <v>111</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>563</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
         <v>564</v>
@@ -51703,7 +51750,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -51723,13 +51770,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -51752,13 +51799,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -51778,13 +51825,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -51804,13 +51851,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -51827,13 +51874,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -51853,13 +51900,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -51873,16 +51920,16 @@
         <v>142</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -51902,13 +51949,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -51928,13 +51975,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -51954,13 +52001,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -51980,13 +52027,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -52006,13 +52053,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -52029,13 +52076,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -52049,13 +52096,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/java답안예시01.xlsx
+++ b/java답안예시01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="588">
   <si>
     <t>이름</t>
   </si>
@@ -8564,7 +8564,7 @@
 점수: 0</t>
   </si>
   <si>
-    <t>[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+    <t>[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8575,9 +8575,9 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 1) Parse error. Found \"int\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 1) Parse error. Found \"void\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 1) Parse error. Found  \"String\" &lt;IDENTIFIER&gt;, expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 2번 문제
@@ -8586,8 +8586,8 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Error extracting method info: Command failed: echo \"import java.util.Arrays;\nimport java.util.Comparator;\nimport java.util.HashMap;\n\npublic class Main {\n    public String[] solution(String[] arr, int n) {\n\n        HashMap&lt;String, String&gt; map = new HashMap&lt;&gt;();\n        HashMap&lt;String, String &gt; duplicatedMap = new HashMap&lt;&gt;();\n        for (String s : arr) {\n            if (map.get(s) == null) {\n                map.put(s, s);\n                System.out.println(\"map.get(s) = \" + map.get(s));\n            } else {\n                duplicatedMap.put(s, s);\n            }\n        }\n        for (String key : duplicatedMap.keySet()) {\n            map.remove(key);\n        }\n\n        // 정답 배열 삽입\n        String[] answer = new String[map.size()];\n        int idx = 0;\n        for (String key : map.keySet()) {\n            answer[idx++] = map.get(key);\n        }\n\n        // 정렬\n        Arrays.sort(answer, new Comparator&lt;String &gt;() {\n            @Override\n            public int compare(String o1, String o2) {\n                if (o1.charAt(n) == o2.charAt(n)) {\n                    return o1.compareTo(o2);\n                }\n                return o1.charAt(n) - o2.charAt(n);\n            }\n        });\n        return answer;\n    }\n\n    public static void main(String[] args) {\n        Main method = new Main();\n        String[] arr = {\"coke\", \"water\", \"glass\", \"dog\", \"dog\", \"yogurt\", \"vitamin\"};\n        int n = 2;\n        System.out.println(Arrays.toString(method.solution(arr, n)));\n    }\n}\n\" | java -jar /Users/gimjeonghyeon/WebstormProjects/auto-score/src/score/language/libs/ASTAnalyzer-1.0-SNAPSHOT.jar\n/bin/sh: -c: line 12: syntax error near unexpected token `('\n/bin/sh: -c: line 12: `                System.out.println(\"map.get(s) = \" + map.get(s));'\n " ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: e.message is not a function" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 2번 문제
@@ -8596,23 +8596,29 @@
 점수: 66</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","cat","car"] ⊄ (모범결과)[["apple","car","cat"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Method 'solution' not found." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"제출된 userCode 가 없습니다." ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+  </si>
+  <si>
     <t xml:space="preserve">문제: 3번 문제
 점수: 0</t>
   </si>
@@ -8622,7 +8628,9 @@
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t>[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8631,8 +8639,8 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 15,col 5) Parse error. Found &lt;EOF&gt;, expected one of  \";\" \"&lt;\" \"@\" \"abstract\" \"boolean\" \"byte\" \"char\" \"class\" \"default\" \"double\" \"enum\" \"exports\" \"final\" \"float\" \"int\" \"interface\" \"long\" \"module\" \"native\" \"open\" \"opens\" \"private\" \"protected\" \"provides\" \"public\" \"record\" \"requires\" \"short\" \"static\" \"strictfp\" \"synchronized\" \"to\" \"transient\" \"transitive\" \"uses\" \"void\" \"volatile\" \"with\" \"yield\" \"{\" \"}\" &lt;IDENTIFIER&gt;\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.ClassOrInterfaceBody(GeneratedJavaParser.java:1197)\n  com.github.javaparser.GeneratedJavaParser.ClassOrInterfaceDeclaration(GeneratedJavaParser.java:500)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:152)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 27,col 5) Parse error. Found &lt;EOF&gt;, expected one of  \";\" \"&lt;\" \"@\" \"abstract\" \"boolean\" \"byte\" \"char\" \"class\" \"default\" \"double\" \"enum\" \"exports\" \"final\" \"float\" \"int\" \"interface\" \"long\" \"module\" \"native\" \"open\" \"opens\" \"private\" \"protected\" \"provides\" \"public\" \"record\" \"requires\" \"short\" \"static\" \"strictfp\" \"synchronized\" \"to\" \"transient\" \"transitive\" \"uses\" \"void\" \"volatile\" \"with\" \"yield\" \"{\" \"}\" &lt;IDENTIFIER&gt;\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.ClassOrInterfaceBody(GeneratedJavaParser.java:1197)\n  com.github.javaparser.GeneratedJavaParser.ClassOrInterfaceDeclaration(GeneratedJavaParser.java:500)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:152)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
@@ -8640,8 +8648,17 @@
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t>[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"void\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 2) Parse error. Found \"void\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\nParse error. Found  \"List\" &lt;IDENTIFIER&gt;, expected one of  \";\" \"@\" \"\\u001a\" \"abstract\" \"class\" \"default\" \"enum\" \"final\" \"import\" \"interface\" \"module\" \"native\" \"open\" \"private\" \"protected\" \"public\" \"record\" \"static\" \"strictfp\" \"synchronized\" \"transient\" \"transitive\" \"volatile\" &lt;EOF&gt;\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:204)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[["car","bed","sun"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8651,11 +8668,11 @@
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"int\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"void\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t/>
@@ -8664,7 +8681,7 @@
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)[[4,6],[7,-3]] ⊄ (모범결과)[[[4,6],[7,-9]]]
 [1번 문제] - 2번 케이스 오답: (유저)[[-2],[-2]] ⊄ (모범결과)[[[-4],[-6]]]
 [1번 문제] - 3번 케이스 오답: (유저)[[10,8,-5],[-5,8,-1]] ⊄ (모범결과)[[[10,8,-7],[-9,8,-11]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code." ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+[2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\nLexical error at line 26, column 39.  Encountered: &lt;EOF&gt; after : \"\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParserTokenManager.getNextToken(GeneratedJavaParserTokenManager.java:3010)\n  com.github.javaparser.GeneratedJavaParser.jj_ntk_f(GeneratedJavaParser.java:13611)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:92)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
 </sst>
 </file>
@@ -51446,7 +51463,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -51562,7 +51579,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -51582,13 +51599,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -51608,13 +51625,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -51634,13 +51651,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -51660,13 +51677,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -51724,7 +51741,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -51750,7 +51767,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -51805,7 +51822,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -51825,13 +51842,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -51874,13 +51891,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -51900,13 +51917,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -51923,13 +51940,13 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -52053,13 +52070,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -52076,13 +52093,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -52096,13 +52113,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/java답안예시01.xlsx
+++ b/java답안예시01.xlsx
@@ -8564,7 +8564,7 @@
 점수: 0</t>
   </si>
   <si>
-    <t>[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+    <t>[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8586,8 +8586,8 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Error getting template: e.message is not a function" ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)"Command failed: echo \"import java.util.Arrays;\nimport java.util.Comparator;\nimport java.util.HashMap;\n\npublic class Main {\n    public String[] solution(String[] arr, int n) {\n\n        HashMap&lt;String, String&gt; map = new HashMap&lt;&gt;();\n        HashMap&lt;String, String &gt; duplicatedMap = new HashMap&lt;&gt;();\n        for (String s : arr) {\n            if (map.get(s) == null) {\n                map.put(s, s);\n                System.out.println(\"map.get(s) = \" + map.get(s));\n            } else {\n                duplicatedMap.put(s, s);\n            }\n        }\n        for (String key : duplicatedMap.keySet()) {\n            map.remove(key);\n        }\n\n        // 정답 배열 삽입\n        String[] answer = new String[map.size()];\n        int idx = 0;\n        for (String key : map.keySet()) {\n            answer[idx++] = map.get(key);\n        }\n\n        // 정렬\n        Arrays.sort(answer, new Comparator&lt;String &gt;() {\n            @Override\n            public int compare(String o1, String o2) {\n                if (o1.charAt(n) == o2.charAt(n)) {\n                    return o1.compareTo(o2);\n                }\n                return o1.charAt(n) - o2.charAt(n);\n            }\n        });\n        return answer;\n    }\n\n    public static void main(String[] args) {\n        Main method = new Main();\n        String[] arr = {\"coke\", \"water\", \"glass\", \"dog\", \"dog\", \"yogurt\", \"vitamin\"};\n        int n = 2;\n        System.out.println(Arrays.toString(method.solution(arr, n)));\n    }\n}\n\" | java -jar /Users/gimjeonghyeon/WebstormProjects/auto-score/src/score/language/libs/MethodExtractor-1.0-SNAPSHOT.jar\n/bin/sh: -c: line 12: syntax error near unexpected token `('\n/bin/sh: -c: line 12: `                System.out.println(\"map.get(s) = \" + map.get(s));'\n" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 2번 문제
@@ -8596,24 +8596,24 @@
 점수: 66</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","cat","car"] ⊄ (모범결과)[["apple","car","cat"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"제출된 userCode 가 없습니다." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
@@ -8655,7 +8655,7 @@
 [3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\nParse error. Found  \"List\" &lt;IDENTIFIER&gt;, expected one of  \";\" \"@\" \"\\u001a\" \"abstract\" \"class\" \"default\" \"enum\" \"final\" \"import\" \"interface\" \"module\" \"native\" \"open\" \"private\" \"protected\" \"public\" \"record\" \"static\" \"strictfp\" \"synchronized\" \"transient\" \"transitive\" \"volatile\" &lt;EOF&gt;\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:204)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
@@ -8667,8 +8667,8 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"Error getting template: template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"int\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[[[4,6],[7,-9]]]

--- a/java답안예시01.xlsx
+++ b/java답안예시01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="587">
   <si>
     <t>이름</t>
   </si>
@@ -8564,7 +8564,7 @@
 점수: 0</t>
   </si>
   <si>
-    <t>[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+    <t>[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8586,8 +8586,10 @@
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)"Command failed: echo \"import java.util.Arrays;\nimport java.util.Comparator;\nimport java.util.HashMap;\n\npublic class Main {\n    public String[] solution(String[] arr, int n) {\n\n        HashMap&lt;String, String&gt; map = new HashMap&lt;&gt;();\n        HashMap&lt;String, String &gt; duplicatedMap = new HashMap&lt;&gt;();\n        for (String s : arr) {\n            if (map.get(s) == null) {\n                map.put(s, s);\n                System.out.println(\"map.get(s) = \" + map.get(s));\n            } else {\n                duplicatedMap.put(s, s);\n            }\n        }\n        for (String key : duplicatedMap.keySet()) {\n            map.remove(key);\n        }\n\n        // 정답 배열 삽입\n        String[] answer = new String[map.size()];\n        int idx = 0;\n        for (String key : map.keySet()) {\n            answer[idx++] = map.get(key);\n        }\n\n        // 정렬\n        Arrays.sort(answer, new Comparator&lt;String &gt;() {\n            @Override\n            public int compare(String o1, String o2) {\n                if (o1.charAt(n) == o2.charAt(n)) {\n                    return o1.compareTo(o2);\n                }\n                return o1.charAt(n) - o2.charAt(n);\n            }\n        });\n        return answer;\n    }\n\n    public static void main(String[] args) {\n        Main method = new Main();\n        String[] arr = {\"coke\", \"water\", \"glass\", \"dog\", \"dog\", \"yogurt\", \"vitamin\"};\n        int n = 2;\n        System.out.println(Arrays.toString(method.solution(arr, n)));\n    }\n}\n\" | java -jar /Users/gimjeonghyeon/WebstormProjects/auto-score/src/score/language/libs/MethodExtractor-1.0-SNAPSHOT.jar\n/bin/sh: -c: line 12: syntax error near unexpected token `('\n/bin/sh: -c: line 12: `                System.out.println(\"map.get(s) = \" + map.get(s));'\n" ⊄ (모범결과)[["car","bed","sun"]]</t>
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">문제: 2번 문제
@@ -8596,24 +8598,24 @@
 점수: 66</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","cat","car"] ⊄ (모범결과)[["apple","car","cat"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"제출된 userCode 가 없습니다." ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
+[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
 [3번 문제] - 1번 케이스 오답: (유저)["car","bed","brush","sun"] ⊄ (모범결과)[["car","bed","sun"]]
 [3번 문제] - 2번 케이스 오답: (유저)["apple","banana","car","cat"] ⊄ (모범결과)[["apple","car","cat"]]
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
@@ -8628,9 +8630,7 @@
 [3번 문제] - 3번 케이스 오답: (유저)["glass","dog","yogurt","coke","vitamin","water"] ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
-[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
-[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">문제: 1번 문제
@@ -8655,27 +8655,23 @@
 [3번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\nParse error. Found  \"List\" &lt;IDENTIFIER&gt;, expected one of  \";\" \"@\" \"\\u001a\" \"abstract\" \"class\" \"default\" \"enum\" \"final\" \"import\" \"interface\" \"module\" \"native\" \"open\" \"private\" \"protected\" \"public\" \"record\" \"static\" \"strictfp\" \"synchronized\" \"transient\" \"transitive\" \"volatile\" &lt;EOF&gt;\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:204)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[["car","bed","sun"]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int star]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]
-[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
-[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
-[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
-  </si>
-  <si>
     <t xml:space="preserve">문제: 1번 문제
 점수: 0
 문제: 2번 문제
 점수: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
-[2번 문제] - 1번 케이스 오답: (유저)"template not found with method info output: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+    <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: int[][]\nParameters: [int[][] arr1, int[][] arr2, Boolean[][] signs]" ⊄ (모범결과)[[[4,6],[7,-9]]]
+[2번 문제] - 1번 케이스 오답: (유저)"채점을 위한 템플릿 코드를 찾지 못했습니다. 제출한 코드의 형식: Found method 'solution'.\nReturn type: void\nParameters: [int n]" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3번 문제] - 1번 케이스 오답: (유저)null ⊄ (모범결과)[["car","bed","sun"]]
+[3번 문제] - 2번 케이스 오답: (유저)null ⊄ (모범결과)[["apple","car","cat"]]
+[3번 문제] - 3번 케이스 오답: (유저)null ⊄ (모범결과)[["glass","yogurt","coke","vitamin","water"]]</t>
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"int\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)[[[4,6],[7,-9]]]
 [2번 문제] - 1번 케이스 오답: (유저)"Failed to parse the code. Details:\n(line 1,col 5) Parse error. Found \"void\", expected one of  \";\" \"@\" \"class\" \"enum\" \"interface\" \"module\" \"open\" \"record\"\nProblem stacktrace : \n  com.github.javaparser.GeneratedJavaParser.generateParseException(GeneratedJavaParser.java:13708)\n  com.github.javaparser.GeneratedJavaParser.jj_consume_token(GeneratedJavaParser.java:13554)\n  com.github.javaparser.GeneratedJavaParser.CompilationUnit(GeneratedJavaParser.java:182)\n  com.github.javaparser.JavaParser.parse(JavaParser.java:123)\n  com.mycompany.app.App.main(App.java:36)" ⊄ (모범결과)["*****\n ***\n  *\n ***\n*****"]</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">[1번 문제] - 1번 케이스 오답: (유저)[[4,6],[7,-3]] ⊄ (모범결과)[[[4,6],[7,-9]]]
@@ -51622,13 +51618,13 @@
         <v>93</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
         <v>576</v>
@@ -51822,7 +51818,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -51842,13 +51838,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -51897,7 +51893,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -51917,7 +51913,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -51940,13 +51936,13 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -52070,13 +52066,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -52093,13 +52089,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -52113,13 +52109,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
